--- a/spreadsheets/Yasuo.xlsx
+++ b/spreadsheets/Yasuo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953122C4-6C4D-411B-8056-D464317CEDF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80911D99-D929-AD4E-986F-F006436EF8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1875" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="5680" yWindow="1880" windowWidth="21520" windowHeight="11820" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Matchup information coming very soon.</t>
+  </si>
+  <si>
+    <t>Aatrox</t>
   </si>
 </sst>
 </file>
@@ -639,19 +642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -684,7 +687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -695,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -725,7 +728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -736,7 +739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -753,7 +756,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -761,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -772,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -797,17 +800,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CAD4B-6F75-45EC-9CCF-5590BB3785E1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -818,9 +821,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -832,40 +835,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H10" s="1" t="s">
         <v>35</v>
       </c>

--- a/spreadsheets/Yasuo.xlsx
+++ b/spreadsheets/Yasuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80911D99-D929-AD4E-986F-F006436EF8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5B9B8-29AF-2D4F-90E7-1EB914836B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="1880" windowWidth="21520" windowHeight="11820" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -73,24 +73,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>For each champion, please enter a value for difficulty (1 - 10).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 should indicate an extremely easy matchup. </t>
-  </si>
-  <si>
-    <t>10 should indicate an unplayable counter.</t>
-  </si>
-  <si>
-    <t>Feel free to use non integers.</t>
-  </si>
-  <si>
-    <t>For each champion, if you have any comments about the matchup, enter it into the C column.</t>
-  </si>
-  <si>
-    <t>Please aim for comments to be between 1-3 sentences long.</t>
-  </si>
-  <si>
     <t>Sample of what it will look like on the website</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>If you have another link, add it to the bottom (for example, Facebook)</t>
   </si>
   <si>
-    <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
-  </si>
-  <si>
     <t>discord</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>After the site launches, any of this information can be changed.</t>
   </si>
   <si>
-    <t>You don't need to fill out EVERY matchup, just as many as you know/would like to.</t>
-  </si>
-  <si>
     <t>My IGN is: "HardOnDonger". I made it to Grand Master 400 LP in Season 9 and have just under 5 million mastery on yasuo so I plan on getting challenger in S10.</t>
   </si>
   <si>
@@ -161,9 +137,6 @@
   </si>
   <si>
     <t>Matchup information coming very soon.</t>
-  </si>
-  <si>
-    <t>Aatrox</t>
   </si>
 </sst>
 </file>
@@ -659,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -670,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -681,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -692,10 +665,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -703,10 +676,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -714,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -722,18 +695,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -744,32 +717,32 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -777,10 +750,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +774,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,55 +796,39 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadsheets/Yasuo.xlsx
+++ b/spreadsheets/Yasuo.xlsx
@@ -5,65 +5,129 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5B9B8-29AF-2D4F-90E7-1EB914836B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC883F78-C306-0C4B-A9A4-500237A73258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="1880" windowWidth="21520" windowHeight="11820" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Mid" sheetId="7" r:id="rId2"/>
+    <sheet name="Top" sheetId="2" r:id="rId2"/>
+    <sheet name="Mid" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>Yasuo</t>
+  </si>
+  <si>
+    <t>Hey! Thank you so much for contributing.</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>Please don't change id/name (B1/B2) cells.</t>
+  </si>
+  <si>
     <t>contributor</t>
   </si>
   <si>
+    <t>Phasuo</t>
+  </si>
+  <si>
+    <t>For contributor, enter the name you would like to be refered to as.</t>
+  </si>
+  <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>https://twitter.com/ImP_Phasuo</t>
+  </si>
+  <si>
+    <t>For socials, enter URLs for your desired links.</t>
+  </si>
+  <si>
     <t>twitch</t>
   </si>
   <si>
+    <t>https://www.twitch.tv/Phasuo</t>
+  </si>
+  <si>
+    <t>If you don't have a social, feel free to omit it.</t>
+  </si>
+  <si>
     <t>op.gg</t>
   </si>
   <si>
+    <t>https://na.op.gg/multi/query=hardondonger%2Cshegottafatyas</t>
+  </si>
+  <si>
+    <t>If you have another link, add it to the bottom (for example, Facebook)</t>
+  </si>
+  <si>
     <t>youtube</t>
   </si>
   <si>
+    <t>https://www.youtube.com/channel/UCP9PDEBKTzoYtBjaraMJNgA</t>
+  </si>
+  <si>
+    <t>For op.gg, you can also link a multi op.gg</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>https://discord.gg/A3DsFPH</t>
+  </si>
+  <si>
+    <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
+  </si>
+  <si>
     <t>portrait</t>
   </si>
   <si>
-    <t>Hey! Thank you so much for contributing.</t>
-  </si>
-  <si>
-    <t>Please don't change id/name (B1/B2) cells.</t>
-  </si>
-  <si>
-    <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
+    <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
+  </si>
+  <si>
+    <t>description/bio</t>
+  </si>
+  <si>
+    <t>I am HardOnDonger. I am a soon to be challenger LoL player. League is my favorite game and I have been playing it since season 1. My favorite champion is yasuo, but I also love ekko, fiora, zed, and irelia. I have over 4 million points on yasuo and counting.</t>
+  </si>
+  <si>
+    <t>extra message</t>
+  </si>
+  <si>
+    <t>I peaked GrandMaster 398 LP in Season 9 so challenger should be very attainable in Season 10.</t>
+  </si>
+  <si>
+    <t>After the site launches, any of this information can be changed.</t>
   </si>
   <si>
     <t>Once you have filled this out, please change sheets at the bottom.</t>
   </si>
   <si>
+    <t>Sample of what it will look like on the website</t>
+  </si>
+  <si>
+    <t>Metadata guide</t>
+  </si>
+  <si>
     <t>Champion</t>
   </si>
   <si>
@@ -73,70 +137,493 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Sample of what it will look like on the website</t>
-  </si>
-  <si>
-    <t>description/bio</t>
-  </si>
-  <si>
-    <t>Yasuo</t>
-  </si>
-  <si>
-    <t>extra message</t>
-  </si>
-  <si>
-    <t>Metadata guide</t>
-  </si>
-  <si>
-    <t>For contributor, enter the name you would like to be refered to as.</t>
-  </si>
-  <si>
-    <t>For socials, enter URLs for your desired links.</t>
-  </si>
-  <si>
-    <t>If you don't have a social, feel free to omit it.</t>
-  </si>
-  <si>
-    <t>If you have another link, add it to the bottom (for example, Facebook)</t>
-  </si>
-  <si>
-    <t>discord</t>
-  </si>
-  <si>
-    <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
-  </si>
-  <si>
-    <t>For op.gg, you can also link a multi op.gg</t>
-  </si>
-  <si>
-    <t>After the site launches, any of this information can be changed.</t>
-  </si>
-  <si>
-    <t>My IGN is: "HardOnDonger". I made it to Grand Master 400 LP in Season 9 and have just under 5 million mastery on yasuo so I plan on getting challenger in S10.</t>
-  </si>
-  <si>
-    <t>general comments</t>
-  </si>
-  <si>
-    <t>Matchup information for Yasuo is coming very soon.</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/phasuo</t>
-  </si>
-  <si>
-    <t>Phasuo</t>
-  </si>
-  <si>
-    <t>https://twitter.com/ImP_Phasuo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCP9PDEBKTzoYtBjaraMJNgA</t>
-  </si>
-  <si>
-    <t>https://discord.gg/A3DsFPH</t>
-  </si>
-  <si>
-    <t>Matchup information coming very soon.</t>
+    <t>Aatrox</t>
+  </si>
+  <si>
+    <t>Matchup revolves around using your dash to dodge his q and dodge out of his w. Can get an executioner to make matchup even easier if needed.</t>
+  </si>
+  <si>
+    <t>For each champion, please enter a value for difficulty (1 - 10).</t>
+  </si>
+  <si>
+    <t>Akali</t>
+  </si>
+  <si>
+    <t>This matchup is all about baiting her q over and over by stepping forward and backward. You should use your eq to hit her in her shroud. Walling her e is good, but walling her q is even better. You have the advantage pre-level 6; afterwards it gets much harder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 should indicate an extremely easy matchup. </t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>This matchup is easy early on if you play around her cooldowns. Her first part of her E is wallable, but not the second. If she gets slightly ahead the matchup will become near impossible as her burst and ability spam is too much for yasuo.</t>
+  </si>
+  <si>
+    <t>10 should indicate an unplayable counter.</t>
+  </si>
+  <si>
+    <t>Cho'Gath</t>
+  </si>
+  <si>
+    <t>Dodge his skillshots with your dash. You outscale him heavily. Ganks are easy to setup with your jungler.</t>
+  </si>
+  <si>
+    <t>Feel free to use non integers.</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>You can win, but it relies on you not missing anything and not fighting lvl 1. Dashing into his q is good, but does not mean you will win the 1v1. If he gets ahead at all you're doomed.</t>
+  </si>
+  <si>
+    <t>For each champion, if you have any comments about the matchup, enter it into the C column.</t>
+  </si>
+  <si>
+    <t>Dr. Mundo</t>
+  </si>
+  <si>
+    <t>Very kitable, standard build of PD, IE will destroy him with an executioner early. Easy to setup ganks with your jungler.</t>
+  </si>
+  <si>
+    <t>Please aim for comments to be between 1-3 sentences long.</t>
+  </si>
+  <si>
+    <t>Fiora</t>
+  </si>
+  <si>
+    <t>Either very easy or very hard as it is a very skill based matchup. Don't let her get close enough to hit your vital, use your dashes to kite her, and bait her w before knocking her up. If she ults you, you should just run away or hug a wall and her W is wall-able.</t>
+  </si>
+  <si>
+    <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
+  </si>
+  <si>
+    <t>Gangplank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good gp will never let you get close to him. Very hard matchup early on as his q spam with grasp is ridiculous. I find it best to just scale until you have some atk speed and crit then you can all in him. </t>
+  </si>
+  <si>
+    <t>Garen</t>
+  </si>
+  <si>
+    <t>Just kite garen all game. Don't all in him unless his E is down. You outscale him very hard, FM is an amazing item to kite him.</t>
+  </si>
+  <si>
+    <t>You don't need to fill out EVERY matchup, just as many as you know/would like to.</t>
+  </si>
+  <si>
+    <t>Gnar</t>
+  </si>
+  <si>
+    <t>Walling his q makes the matchup very easy as it puts his q on a very long CD. Without his passive he has basically nothing vs you. Ulting him right as his ult ends is a great strategy.</t>
+  </si>
+  <si>
+    <t>Heimerdinger</t>
+  </si>
+  <si>
+    <t>You can wall all his dmg and dash through his turrets to get to him. Only use your wall when you are going to knock him up to guarantee your ult. Good walls in fights will completely negate heimer as a champion.</t>
+  </si>
+  <si>
+    <t>Illaoi</t>
+  </si>
+  <si>
+    <t>You can dodge all her damage with your dashes, except her aa's and her w, and wall her E. If she ults, you need to dash away and go back in when it is over. If you take too many E's in lane, you won't win.</t>
+  </si>
+  <si>
+    <t>Irelia</t>
+  </si>
+  <si>
+    <t>Walling her stun is your best counter to her. Be careful of her dodging your knockup with her q. A good irelia will place the stun behind you horizontally in a very small width, making it hard to wall, reaction time with your W is key here.</t>
+  </si>
+  <si>
+    <t>Jax</t>
+  </si>
+  <si>
+    <t>Early game is about your only chance to win this matchup as he outscales you very hard. Poke him with you q as much as possible early on, use your dash to dodge his stun, and go right back in on him. Post 6 the matchup gets very hard as his ult makes him a tank basically so you should run away if he ults.</t>
+  </si>
+  <si>
+    <t>Jayce</t>
+  </si>
+  <si>
+    <t>Jayce's early game poke makes this matchup hard. You win all in trades though so that's all you should go for. Wait for a big minion wave and ideally for him to use a couple spells, then all in him; even if he knocks you away you can dash right back to him with a minion wave.</t>
+  </si>
+  <si>
+    <t>Kayle</t>
+  </si>
+  <si>
+    <t>She is very weak early and has no mobility making this very easy for yasuo. Pay attention to the enemy jungler and abuse kayle as much as possible early. She's only a problem if she scales; can wall her AA's.</t>
+  </si>
+  <si>
+    <t>Kennen</t>
+  </si>
+  <si>
+    <t>Try your best to just scale; 2 or even 3 dorans blades isn't bad here. Good kennens will never let you get close to them and will poke you immensely all laning phase. Maw is a pretty great item (not needed though) vs kennen as once his ult is done you can fight him and you will heal back a lot of the damage you just took.</t>
+  </si>
+  <si>
+    <t>Kled</t>
+  </si>
+  <si>
+    <t>Dodgeing/walling his q's (mounted &amp; dismounted) are very important. Without his w he is very weak. Save your ult for after he dismounts for an easy kill.</t>
+  </si>
+  <si>
+    <t>Malphite</t>
+  </si>
+  <si>
+    <t>Wall his q for all in's, kite him if he uses E or W, then go back in. His combo can do roughly half your hp post 6 without being fed, so not taking too much poke is optimal post 6. Setup ganks with your jungler for easy kills.</t>
+  </si>
+  <si>
+    <t>Maokai</t>
+  </si>
+  <si>
+    <t>Can wall his knockback and his R. He wins matchup by repeatedly combo'ing you so you need to all in him. Some MR is very useful vs him; setting up ganks with your jg is easy.</t>
+  </si>
+  <si>
+    <t>Mordekaiser</t>
+  </si>
+  <si>
+    <t>Always build wits end vs him; it's an absolute must and makes the matchup 100000 times easier. Dodge his Q and E with your dash. Save your knockup for when he ults you, unless it’s a far range nado; kite him when his passive is on.</t>
+  </si>
+  <si>
+    <t>Nasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He outscales you so you need to win early and press the advantage. Poke him with q nonstop early and setup ganks with you jg. Kite him when he uses his W on you and/or ults. </t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>His Q spam early on will kill you easily as even if you wall his q, his q just stops at the wall and he picks it right back up. His ult makes him not ult-able so you need to play around that. You need to dodge his q with your dash then go in on him; if he gets slightly fed, matchup becomes extremely hard/unwinnable.</t>
+  </si>
+  <si>
+    <t>Ornn</t>
+  </si>
+  <si>
+    <t>Pretty easy matchup if you play around his spells. His ult is wall-able (both directions) so yasuo is actually a decent counter to him. Botrk is a good item here for when he gets tanky; ganks are easy to setup with jg.</t>
+  </si>
+  <si>
+    <t>Pantheon</t>
+  </si>
+  <si>
+    <t>Pantheon is very hard because you have no answer to his stun combo. Best bet is to play safe and setup ganks with your jg as he has no mobility.</t>
+  </si>
+  <si>
+    <t>Poppy</t>
+  </si>
+  <si>
+    <t>Wall her passive and poke her with q as much as possible early on, never put yourself in a position where she can stun you on a wall. Her ult if wound up can be walled. Botrk is a great item here and don't dash when her w is on as you will get knocked up.</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Don't take short trades with her as it is very hard to out-trade her unless you're fed. Look for all in's and setup ganks with your jg. Try to not take too much harass early on as her combo hurts badly.</t>
+  </si>
+  <si>
+    <t>Renekton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to win pre-level 6 as it's your only chance. You have no answer to his stun combo and taking one stun combo means he will dive you the next time it's up. Setting up ganks with your jg is good, but if he has his E it won't be easy.  </t>
+  </si>
+  <si>
+    <t>Rengar</t>
+  </si>
+  <si>
+    <t>Rengar only wants to run to the bush and jump to you over and over. You can out damage him if you stay on him and not let him poke you; wall his e, and press the advantage early. Ninja tabi is good here, but not neccesary.</t>
+  </si>
+  <si>
+    <t>Riven</t>
+  </si>
+  <si>
+    <t>Try to win early (pre-level 6) as she outscales you very hard. Try to bait her spells and go in on her when they are gone; careful though as her q cd starts when the first q is cast (not when the last q is cast). Try not to q her when you're right next to her as she can stop your q with her 3rd q or her w.</t>
+  </si>
+  <si>
+    <t>Rumble</t>
+  </si>
+  <si>
+    <t>Rumble's early game poke is extremely hard to deal with; wits end is a must here. Levels 1-4 you can get an advantage, but after that it gets very hard and you should safe farm until wits end. Setting up ganks with your jg is good as he will always push.</t>
+  </si>
+  <si>
+    <t>Ryze</t>
+  </si>
+  <si>
+    <t>Walling his e stops him from rooting you; look for all in's and not short trades. Setting up ganks with your jg works well as he is not very mobile.</t>
+  </si>
+  <si>
+    <t>Shen</t>
+  </si>
+  <si>
+    <t>His damage with grasp is pretty high, but you win all in's if he's not fed. His q is wallable (it will stop at the wall). Don't fight him in his w; dodge his taunt with you dash.</t>
+  </si>
+  <si>
+    <t>Singed</t>
+  </si>
+  <si>
+    <t>Wits end, merc treads, PD, and FM will make singed wish you weren't in the game. Rushing wits end is very good here as it will let you heal out of his poison. Only use your eq for knockup (when you want to ult) so he can't dodge your nado; you win at all stages of the game unless he's fed.</t>
+  </si>
+  <si>
+    <t>Sion</t>
+  </si>
+  <si>
+    <t>He's a pain if you don't dodge his q with your dash. Without his q he won't deal much damage pre-6. Setting up ganks with your jg is good as well as a botrk because of his health/tankiness.</t>
+  </si>
+  <si>
+    <t>Swain</t>
+  </si>
+  <si>
+    <t>Wall his stun and dash out of his w. If he ults you should just kite him unless you can't make it out of it. You win all in's with ignite or executioner easily.</t>
+  </si>
+  <si>
+    <t>Sylas</t>
+  </si>
+  <si>
+    <t>His chain/stun and ult (before he has someone's ult) is wall-able; dash to dodge his q. Only all in him if his w is on cd; or if not then only if you have healing reduction as his W is made to make him win fights.</t>
+  </si>
+  <si>
+    <t>Teemo</t>
+  </si>
+  <si>
+    <t>Can wall all his damage, except his ult when it pops. Wits end is good here, but not needed.</t>
+  </si>
+  <si>
+    <t>Trundle</t>
+  </si>
+  <si>
+    <t>Executioner pretty much necessary here as he heals way too much. Don't fight him when he ults you. Botrk is great here.</t>
+  </si>
+  <si>
+    <t>Tryndamere</t>
+  </si>
+  <si>
+    <t>Pressure him early as he becomes much harder to deal with later. If he ults, just kite him then re-engage. FM is a good item here to kite him.</t>
+  </si>
+  <si>
+    <t>Urgot</t>
+  </si>
+  <si>
+    <t>All his damage is wall-able. Walling his ult makes him an easy kill. Can dodge his q with your dash.</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Abuse vlad early as much as possible as he scales into oblivion later. Try to save your nado for after he pools for an easy kill post-level 6. His E is wall-able and so is the healing on his Q.</t>
+  </si>
+  <si>
+    <t>Wukong</t>
+  </si>
+  <si>
+    <t>When he uses his combo on you, you need to chase him down and deal as much damage as possible. PD is great here for his burst. Once he uses his abilities he has nothing left so that's your time to strike.</t>
+  </si>
+  <si>
+    <t>Yorick</t>
+  </si>
+  <si>
+    <t>Dash out of his CC ring, stack q off his ghouls. Can get executioner here if you need, but he can't really deal with yasuo's damage and mobility.</t>
+  </si>
+  <si>
+    <t>Ahri</t>
+  </si>
+  <si>
+    <t>All her damage is wall-able, can setup easy ganks pre-6 with jungle. She's very squishy so you can nearly one shot her post-level 6 with a good nado.</t>
+  </si>
+  <si>
+    <t>Same as top notes.</t>
+  </si>
+  <si>
+    <t>Anivia</t>
+  </si>
+  <si>
+    <t>Need to abuse her pre-level 6. After 6 she will just clear waves without you being able to do anything. Easy to setup ganks with jg as she has no mobility.</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>She has insanely high burst and your wall basically does nothing in this matchup. Try to freeze and setup ganks with your jg. Early PD or hexdrinker is good here.</t>
+  </si>
+  <si>
+    <t>Aurelion Sol</t>
+  </si>
+  <si>
+    <t>All he wants to do is push and roam. Either bait out his q or wall it then he's an easy kill. Setting up ganks with your jg is good here.</t>
+  </si>
+  <si>
+    <t>Azir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst matchup for mid as he has insane range and you pretty much never can 1v1 him. If you must play this matchup stack dorans blades and take fleet. You can wall his R and even dash through it, but his dmg 1v1 is still very strong. </t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Much of his damage is wall-able. For an easy kill just get a nado ready, dash into him, throw your wall in his face and nado him for an easy kill.</t>
+  </si>
+  <si>
+    <t>Cassiopeia</t>
+  </si>
+  <si>
+    <t>This matchup is all about dodging her q's with good movement or your dashes. Her main source of dmg (her e) is wall-able, but the rest of her kit is not. She is very squishy so a good airblade post-level 6 will decimate her.</t>
+  </si>
+  <si>
+    <t>Corki</t>
+  </si>
+  <si>
+    <t>All his damage, besides his package is wall-able and he is very squishy. As long as you don't let yourself get poked too much a good wall will win this matchup.</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Throw your wall at an angle to block her Q easily. Wits end means you never lose against her. Dash out of her ultimate. Poke her as much as possible early on.</t>
+  </si>
+  <si>
+    <t>Ekko</t>
+  </si>
+  <si>
+    <t>You outscale ekko heavily and he can't deal with yasuo's sustain. He needs to go hard on you early to win the mathcup so just play a bit safe and kite him so he can't proc his passive. Dash out of his R and his W.</t>
+  </si>
+  <si>
+    <t>Fizz</t>
+  </si>
+  <si>
+    <t>Poke him levels 1-2 as much as possible. After he uses his combo he has nothing so that’s your time to strike. Dash out of his E and wall his R.</t>
+  </si>
+  <si>
+    <t>Galio</t>
+  </si>
+  <si>
+    <t>Wall his Q, dash out of his knockup. His combo will do a good portion of your health so don't get close enough for him to taunt you. Setup ganks with your jg; wits end isn't a bad idea here.</t>
+  </si>
+  <si>
+    <t>Karthus</t>
+  </si>
+  <si>
+    <t>Dodge his q's with you dash, setup ganks with your jg. Freze wave as best you can because he just wants to scale and freezing means easy ganks.</t>
+  </si>
+  <si>
+    <t>Kassadin</t>
+  </si>
+  <si>
+    <t>Poke him as much as possible early and try to freeze for easy ganks with your jg. Be careful as his burst pre-6 is still pretty high.</t>
+  </si>
+  <si>
+    <t>Katarina</t>
+  </si>
+  <si>
+    <t>You can wall her Q and her R. Dash out of her daggers and re-engage if she picks them up. Try and count her jumps because a good kat will dodge your knockup with her E.</t>
+  </si>
+  <si>
+    <t>LeBlanc</t>
+  </si>
+  <si>
+    <t>Take fleet in this matchup and rush double dorans blade to sustain her burst. Walling her E is of the utmost importance. Try to nado her when she is about half hp or slightly more as this won't pop her passive and you can still ult.</t>
+  </si>
+  <si>
+    <t>Lissandra</t>
+  </si>
+  <si>
+    <t>Cleanse is a must in this matchup so you can deal with her ult. Best outplay you have is to dash onto her and wall her escape then she has no way of getting away from you.</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Her Q and E are both wall-able and she is very squishy. Don’t take too much poke and she’s an easy kill as she has no mobility.</t>
+  </si>
+  <si>
+    <t>Malzahar</t>
+  </si>
+  <si>
+    <t>Freeze the wave early on and setup ganks with your jg. Building a qss later is a very good idea as after you have that he will never have kill pressure on you.</t>
+  </si>
+  <si>
+    <t>Neeko</t>
+  </si>
+  <si>
+    <t>Her E and her aa’s are wall-able. If you knock her up and she uses her W, the clone will run away, but the actual neeko will still be where you knocked her up at. Dash out of her ult and freeze lane early to setup ganks with your jg.</t>
+  </si>
+  <si>
+    <t>Orianna</t>
+  </si>
+  <si>
+    <t>Play safe early, freeze the wave, and setup ganks with your jg. Best way to kill her is to dash on top of her when she uses her q on you, wall behind you towards her ball and you will stop her E shield.</t>
+  </si>
+  <si>
+    <t>Qiyana</t>
+  </si>
+  <si>
+    <t>You can wall her Q and her R. Your best bet is to abuse her early because she gets quite a lot of burst as she scales. You need to dash out of her q then re-engage on her. If you fight her near a wall, make sure to put your windwall on that wall to stop her ult.</t>
+  </si>
+  <si>
+    <t>Syndra</t>
+  </si>
+  <si>
+    <t>This matchup is all about dodging her q’s with good dashes. Fleet does wonders here. You can wall her E and her R. Post-level 6 you always want to save your wall for her R for the most part.</t>
+  </si>
+  <si>
+    <t>Talon</t>
+  </si>
+  <si>
+    <t>You can wall his W, if you do you need to immediately re-engage on him as after that he has nothing. If you see him heading for a wall you should throw your nado where he will land on the other side, place a ward on the other side if you knock him up, then ult him. He will want to roam a lot so shoving his lane in is a must at all times, but you most do so safely.</t>
+  </si>
+  <si>
+    <t>Tristana</t>
+  </si>
+  <si>
+    <t>Don’t let her get level 2 first as it could end in your death. All you need to do here is get your nado ready, dash into her, throw your wall in her face, and do as much damage as possible before dashing back to safety. You can wall basically all her damage.</t>
+  </si>
+  <si>
+    <t>Twisted Fate</t>
+  </si>
+  <si>
+    <t>You can wall all his damage and he is very squishy. A good TF will try to bait your wall so make sure and save it for his stun. If you successfully wall his stun, he has nothing and is a very easy kill. You want to shove this lane in all the time post-level 6 so he can’t roam.</t>
+  </si>
+  <si>
+    <t>Veigar</t>
+  </si>
+  <si>
+    <t>You can wall all his damage except his W. Try to save your wall post-level 6 for his ult. Best way to outplay veig is to get a nado ready, dash towards him, wait for him to use his cage on you, then throw your nado at him; if it hits you can ult right out of his cage (if you’re not stunned) and kill him.</t>
+  </si>
+  <si>
+    <t>Vel'Koz</t>
+  </si>
+  <si>
+    <t>You can wall all his damage except his R. He is immobile so freezing and setting up ganks with your jg works great here. Don’t take too much harass early on and you can kill him easily once you get a few levels.</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>You can wall his Q and his E, but even if you wall his Q he will still get his empowered AA and that AA goes through your wall. You need to try and freeze this lane, and setup ganks with your jg as viktor is immobile. Fleet isn’t a bad option here, but conq will help you kill him once you get on top of him. You also need to dash out of his W quickly or else you will get stunned.</t>
+  </si>
+  <si>
+    <t>Xerath</t>
+  </si>
+  <si>
+    <t>You can wall his E and his auto attacks and that’s it. You need to dodge as much harass as you can early on so that when you do go in on him you can actually kill him. Getting a nado ready, dashing into him, throwing a wall in his face, then knocking him up and ulting him works very well.</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>Wall his shadow every time he throws it out as this will stop a large portion of his poke. Post-level 6 never throw your nado at him unless it’s about max distance as he will just ult you to dodge your nado then you will have no way of ulting before you die. Best outplay you have is to save your nado, and if he ults you then you can throw your nado behind yourself right as he appears there and ult him for the counterplay. Take fleet and rush PD.</t>
+  </si>
+  <si>
+    <t>Ziggs</t>
+  </si>
+  <si>
+    <t>You can wall his Q, passive AA,  W, and E. His R is not wall-able. He is very squishy so as long as you don’t take too much harass early on then you can dash on top of him and kill him with a good wall in his face.</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Walling her bubble is an absolute must or else you will die. You can take cleanse here and just cleanse as soon as she bubbles you (don’t have to wait for bubble to sleep you). If you have your nado and she’s 6, wait for her to ult then just throw your nado where she ulted from for an easy knockup and kill. Qss will do the same as cleanse and basically make her worthless.</t>
   </si>
 </sst>
 </file>
@@ -146,26 +633,26 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,12 +674,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -200,6 +687,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -216,49 +771,42 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>523440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>10309</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="2" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E47F41-DEB2-4F46-AEF9-66E64CBCD274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2838450" y="2857500"/>
-          <a:ext cx="5419725" cy="2296309"/>
+          <a:off x="3002040" y="2857320"/>
+          <a:ext cx="5507640" cy="2296080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -266,49 +814,42 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>169743</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>245812</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="3" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF85E4A-BA54-40E0-9396-85EC7EB09B2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9572626" y="2836743"/>
-          <a:ext cx="7551486" cy="3221157"/>
+          <a:off x="9831960" y="2836800"/>
+          <a:ext cx="7581600" cy="3220920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -612,19 +1153,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -632,206 +1174,1233 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" tooltip="https://www.twitch.tv/phasuo" xr:uid="{4FE05A65-493F-4BB8-9860-6220FAB2CD69}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="https://twitter.com/ImP_Phasuo" xr:uid="{E9EC3FC2-257D-4B98-B91C-F7950CA857D4}"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="https://www.youtube.com/channel/UCP9PDEBKTzoYtBjaraMJNgA" xr:uid="{20E498A7-8E60-466D-BDD1-45D298D6C8EF}"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="https://discord.gg/A3DsFPH" xr:uid="{E78D5EEC-EC86-4902-A258-582016BD8BF2}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CAD4B-6F75-45EC-9CCF-5590BB3785E1}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="1025" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="1"/>
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="1"/>
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="1"/>
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="1"/>
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="1"/>
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H8" s="1"/>
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H10" s="1"/>
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>